--- a/documents/2022-19-12-2.kup-grada-zagreba-rezultati.xlsx
+++ b/documents/2022-19-12-2.kup-grada-zagreba-rezultati.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asambol/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asambol/Private/ZPLS/zpls-powerlifting/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F26500E-B8E6-6C42-915C-373BD91E919E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50EC63B-BB4A-A541-90CB-763D1AC49716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17380" xr2:uid="{A8D34603-F98E-5E4A-82E5-763689582980}"/>
   </bookViews>
@@ -2134,9 +2134,6 @@
     <t>Luka Puškić</t>
   </si>
   <si>
-    <t>Lea Šarić Anderle</t>
-  </si>
-  <si>
     <t>Dino Višnjić</t>
   </si>
   <si>
@@ -2204,6 +2201,9 @@
   </si>
   <si>
     <t>BENCH PRESS MUŠKI</t>
+  </si>
+  <si>
+    <t>Leonardo Šarić Anderle</t>
   </si>
 </sst>
 </file>
@@ -2577,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE011D1-1309-834D-AABB-B490BD3ECE11}">
   <dimension ref="A1:V209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2608,69 +2608,69 @@
         <v>552</v>
       </c>
       <c r="C1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G1" t="s">
         <v>688</v>
       </c>
-      <c r="D1" t="s">
-        <v>706</v>
-      </c>
-      <c r="E1" t="s">
-        <v>704</v>
-      </c>
-      <c r="F1" t="s">
-        <v>705</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>689</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>690</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>691</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>692</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>693</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>694</v>
-      </c>
-      <c r="M1" t="s">
-        <v>695</v>
       </c>
       <c r="N1" t="s">
         <v>150</v>
       </c>
       <c r="O1" t="s">
+        <v>695</v>
+      </c>
+      <c r="P1" t="s">
         <v>696</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>697</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>698</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>699</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>700</v>
-      </c>
-      <c r="T1" t="s">
-        <v>701</v>
       </c>
       <c r="U1" t="s">
         <v>0</v>
       </c>
       <c r="V1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B2" s="2"/>
     </row>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B38" s="2"/>
     </row>
@@ -13137,7 +13137,7 @@
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B167" s="2"/>
     </row>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B176" s="2"/>
     </row>
@@ -14568,7 +14568,7 @@
         <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>686</v>
+        <v>709</v>
       </c>
       <c r="C206" t="s">
         <v>168</v>
@@ -14700,7 +14700,7 @@
         <v>1</v>
       </c>
       <c r="B209" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C209" t="s">
         <v>168</v>
